--- a/examples/apex_USp/src/protocol_TCDS.xlsx
+++ b/examples/apex_USp/src/protocol_TCDS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TCDS_mgt_atts" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1879" uniqueCount="1143">
   <si>
     <t xml:space="preserve">// path</t>
   </si>
@@ -1333,9 +1333,6 @@
     <t xml:space="preserve">RXSLIDE_MODE</t>
   </si>
   <si>
-    <t xml:space="preserve">OFF</t>
-  </si>
-  <si>
     <t xml:space="preserve">RXSYNC_MULTILANE</t>
   </si>
   <si>
@@ -2525,6 +2522,12 @@
   </si>
   <si>
     <t xml:space="preserve">RXPCSRESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RXPD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added manually, was not copied (???)</t>
   </si>
   <si>
     <t xml:space="preserve">RXPHALIGN</t>
@@ -3593,10 +3596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1875"/>
+  <dimension ref="A1:D1876"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A513" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A528" activeCellId="0" sqref="A528"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A370" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B397" activeCellId="0" sqref="B397"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6544,13 +6547,13 @@
         <v>435</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="D327" s="0"/>
     </row>
     <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="0" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B328" s="4" t="s">
         <v>6</v>
@@ -6559,7 +6562,7 @@
     </row>
     <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="0" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B329" s="4" t="s">
         <v>6</v>
@@ -6568,7 +6571,7 @@
     </row>
     <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="0" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B330" s="4" t="s">
         <v>6</v>
@@ -6577,7 +6580,7 @@
     </row>
     <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="0" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B331" s="4" t="s">
         <v>6</v>
@@ -6586,16 +6589,16 @@
     </row>
     <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B332" s="4" t="s">
         <v>441</v>
-      </c>
-      <c r="B332" s="4" t="s">
-        <v>442</v>
       </c>
       <c r="D332" s="0"/>
     </row>
     <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="0" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B333" s="4" t="s">
         <v>133</v>
@@ -6604,7 +6607,7 @@
     </row>
     <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A334" s="0" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B334" s="4" t="s">
         <v>6</v>
@@ -6613,7 +6616,7 @@
     </row>
     <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A335" s="0" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B335" s="4" t="s">
         <v>434</v>
@@ -6622,7 +6625,7 @@
     </row>
     <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="0" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B336" s="4" t="s">
         <v>30</v>
@@ -6631,7 +6634,7 @@
     </row>
     <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="0" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B337" s="4" t="s">
         <v>139</v>
@@ -6640,16 +6643,16 @@
     </row>
     <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="B338" s="4" t="s">
         <v>448</v>
-      </c>
-      <c r="B338" s="4" t="s">
-        <v>449</v>
       </c>
       <c r="D338" s="0"/>
     </row>
     <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="0" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B339" s="4" t="s">
         <v>6</v>
@@ -6658,43 +6661,43 @@
     </row>
     <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="0" t="s">
+        <v>450</v>
+      </c>
+      <c r="B340" s="4" t="s">
         <v>451</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>452</v>
       </c>
       <c r="D340" s="0"/>
     </row>
     <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="0" t="s">
+        <v>452</v>
+      </c>
+      <c r="B341" s="4" t="s">
         <v>453</v>
-      </c>
-      <c r="B341" s="4" t="s">
-        <v>454</v>
       </c>
       <c r="D341" s="0"/>
     </row>
     <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="0" t="s">
+        <v>454</v>
+      </c>
+      <c r="B342" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="B342" s="4" t="s">
-        <v>456</v>
       </c>
       <c r="D342" s="0"/>
     </row>
     <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B343" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B343" s="4" t="s">
-        <v>458</v>
       </c>
       <c r="D343" s="0"/>
     </row>
     <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="0" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>133</v>
@@ -6703,7 +6706,7 @@
     </row>
     <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="0" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B345" s="4" t="s">
         <v>85</v>
@@ -6712,25 +6715,25 @@
     </row>
     <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="0" t="s">
+        <v>460</v>
+      </c>
+      <c r="B346" s="4" t="s">
         <v>461</v>
-      </c>
-      <c r="B346" s="4" t="s">
-        <v>462</v>
       </c>
       <c r="D346" s="0"/>
     </row>
     <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="B347" s="4" t="s">
         <v>463</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>464</v>
       </c>
       <c r="D347" s="0"/>
     </row>
     <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="0" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B348" s="4" t="s">
         <v>30</v>
@@ -6739,7 +6742,7 @@
     </row>
     <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="0" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B349" s="4" t="s">
         <v>30</v>
@@ -6748,16 +6751,16 @@
     </row>
     <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="0" t="s">
+        <v>466</v>
+      </c>
+      <c r="B350" s="4" t="s">
         <v>467</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>468</v>
       </c>
       <c r="D350" s="0"/>
     </row>
     <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="0" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B351" s="4" t="s">
         <v>275</v>
@@ -6766,7 +6769,7 @@
     </row>
     <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="0" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B352" s="4" t="s">
         <v>20</v>
@@ -6775,7 +6778,7 @@
     </row>
     <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="0" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B353" s="4" t="s">
         <v>275</v>
@@ -6784,16 +6787,16 @@
     </row>
     <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A354" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="B354" s="4" t="s">
         <v>472</v>
-      </c>
-      <c r="B354" s="4" t="s">
-        <v>473</v>
       </c>
       <c r="D354" s="0"/>
     </row>
     <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A355" s="0" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B355" s="4" t="s">
         <v>275</v>
@@ -6802,7 +6805,7 @@
     </row>
     <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="0" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B356" s="4" t="s">
         <v>6</v>
@@ -6811,7 +6814,7 @@
     </row>
     <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="0" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>85</v>
@@ -6820,7 +6823,7 @@
     </row>
     <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="0" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>6</v>
@@ -6829,7 +6832,7 @@
     </row>
     <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="0" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>277</v>
@@ -6838,7 +6841,7 @@
     </row>
     <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>6</v>
@@ -6847,7 +6850,7 @@
     </row>
     <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>30</v>
@@ -6856,25 +6859,25 @@
     </row>
     <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="D362" s="0"/>
     </row>
     <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D363" s="0"/>
     </row>
     <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>6</v>
@@ -6883,7 +6886,7 @@
     </row>
     <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="0" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>120</v>
@@ -6892,7 +6895,7 @@
     </row>
     <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="0" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>6</v>
@@ -6901,7 +6904,7 @@
     </row>
     <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>6</v>
@@ -6910,7 +6913,7 @@
     </row>
     <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="0" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>20</v>
@@ -6919,7 +6922,7 @@
     </row>
     <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="0" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>6</v>
@@ -6928,7 +6931,7 @@
     </row>
     <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>14</v>
@@ -6937,7 +6940,7 @@
     </row>
     <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>314</v>
@@ -6946,7 +6949,7 @@
     </row>
     <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>266</v>
@@ -6955,7 +6958,7 @@
     </row>
     <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>6</v>
@@ -6964,25 +6967,25 @@
     </row>
     <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="0" t="s">
+        <v>494</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D374" s="0"/>
     </row>
     <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="0" t="s">
+        <v>496</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D375" s="0"/>
     </row>
     <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="0" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>6</v>
@@ -6991,34 +6994,34 @@
     </row>
     <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="0" t="s">
+        <v>499</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>500</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>501</v>
       </c>
       <c r="D377" s="0"/>
     </row>
     <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>502</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>503</v>
       </c>
       <c r="D378" s="0"/>
     </row>
     <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D379" s="0"/>
     </row>
     <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>6</v>
@@ -7027,7 +7030,7 @@
     </row>
     <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>192</v>
@@ -7036,7 +7039,7 @@
     </row>
     <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>120</v>
@@ -7045,16 +7048,16 @@
     </row>
     <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B383" s="2" t="s">
         <v>508</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>509</v>
       </c>
       <c r="D383" s="0"/>
     </row>
     <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>30</v>
@@ -7063,16 +7066,16 @@
     </row>
     <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D385" s="0"/>
     </row>
     <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B386" s="2" t="s">
         <v>120</v>
@@ -7081,25 +7084,25 @@
     </row>
     <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D387" s="0"/>
     </row>
     <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
+        <v>513</v>
+      </c>
+      <c r="B388" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="D388" s="0"/>
     </row>
     <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="0" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>6</v>
@@ -7108,7 +7111,7 @@
     </row>
     <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>6</v>
@@ -7117,7 +7120,7 @@
     </row>
     <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>6</v>
@@ -7126,7 +7129,7 @@
     </row>
     <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>48</v>
@@ -7135,7 +7138,7 @@
     </row>
     <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>192</v>
@@ -7144,16 +7147,16 @@
     </row>
     <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
+        <v>520</v>
+      </c>
+      <c r="B394" s="2" t="s">
         <v>521</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>522</v>
       </c>
       <c r="D394" s="0"/>
     </row>
     <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B395" s="2" t="s">
         <v>192</v>
@@ -7162,25 +7165,25 @@
     </row>
     <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D396" s="0"/>
     </row>
     <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B397" s="2" t="s">
         <v>525</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>526</v>
       </c>
       <c r="D397" s="0"/>
     </row>
     <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B398" s="2" t="s">
         <v>263</v>
@@ -7189,7 +7192,7 @@
     </row>
     <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>85</v>
@@ -7198,7 +7201,7 @@
     </row>
     <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>85</v>
@@ -7207,16 +7210,16 @@
     </row>
     <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B401" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="D401" s="0"/>
     </row>
     <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>87</v>
@@ -7225,7 +7228,7 @@
     </row>
     <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>6</v>
@@ -7234,43 +7237,43 @@
     </row>
     <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
+        <v>533</v>
+      </c>
+      <c r="B404" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="D404" s="0"/>
     </row>
     <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B405" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="D405" s="0"/>
     </row>
     <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="B406" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="D406" s="0"/>
     </row>
     <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
+        <v>539</v>
+      </c>
+      <c r="B407" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="D407" s="0"/>
     </row>
     <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>117</v>
@@ -7279,16 +7282,16 @@
     </row>
     <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="B409" s="2" t="s">
         <v>543</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>544</v>
       </c>
       <c r="D409" s="0"/>
     </row>
     <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>130</v>
@@ -7297,7 +7300,7 @@
     </row>
     <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>130</v>
@@ -7306,7 +7309,7 @@
     </row>
     <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>85</v>
@@ -7315,7 +7318,7 @@
     </row>
     <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>85</v>
@@ -7324,16 +7327,16 @@
     </row>
     <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="B414" s="2" t="s">
         <v>549</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>550</v>
       </c>
       <c r="D414" s="0"/>
     </row>
     <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>391</v>
@@ -7342,25 +7345,25 @@
     </row>
     <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D416" s="0"/>
     </row>
     <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
+        <v>552</v>
+      </c>
+      <c r="B417" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="D417" s="0"/>
     </row>
     <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>275</v>
@@ -7369,7 +7372,7 @@
     </row>
     <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>16</v>
@@ -7378,7 +7381,7 @@
     </row>
     <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>20</v>
@@ -7387,7 +7390,7 @@
     </row>
     <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>261</v>
@@ -7396,34 +7399,34 @@
     </row>
     <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B422" s="2" t="s">
         <v>559</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>560</v>
       </c>
       <c r="D422" s="0"/>
     </row>
     <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
+        <v>560</v>
+      </c>
+      <c r="B423" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>562</v>
       </c>
       <c r="D423" s="0"/>
     </row>
     <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
+        <v>562</v>
+      </c>
+      <c r="B424" s="2" t="s">
         <v>563</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>564</v>
       </c>
       <c r="D424" s="0"/>
     </row>
     <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="0" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>14</v>
@@ -7432,7 +7435,7 @@
     </row>
     <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>139</v>
@@ -7441,7 +7444,7 @@
     </row>
     <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>6</v>
@@ -7450,16 +7453,16 @@
     </row>
     <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
+        <v>567</v>
+      </c>
+      <c r="B428" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="D428" s="0"/>
     </row>
     <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>120</v>
@@ -7468,7 +7471,7 @@
     </row>
     <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>120</v>
@@ -7477,7 +7480,7 @@
     </row>
     <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>120</v>
@@ -7486,7 +7489,7 @@
     </row>
     <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>30</v>
@@ -7495,7 +7498,7 @@
     </row>
     <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>117</v>
@@ -7504,7 +7507,7 @@
     </row>
     <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>6</v>
@@ -7513,7 +7516,7 @@
     </row>
     <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B435" s="2" t="s">
         <v>6</v>
@@ -7522,7 +7525,7 @@
     </row>
     <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>6</v>
@@ -7531,7 +7534,7 @@
     </row>
     <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>6</v>
@@ -7540,34 +7543,34 @@
     </row>
     <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
+        <v>578</v>
+      </c>
+      <c r="B438" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B438" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="D438" s="0"/>
     </row>
     <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
+        <v>580</v>
+      </c>
+      <c r="B439" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B439" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="D439" s="0"/>
     </row>
     <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
+        <v>582</v>
+      </c>
+      <c r="B440" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B440" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="D440" s="0"/>
     </row>
     <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>6</v>
@@ -7576,7 +7579,7 @@
     </row>
     <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>261</v>
@@ -7585,7 +7588,7 @@
     </row>
     <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>6</v>
@@ -7594,7 +7597,7 @@
     </row>
     <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>6</v>
@@ -7603,7 +7606,7 @@
     </row>
     <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B445" s="2" t="s">
         <v>6</v>
@@ -7612,7 +7615,7 @@
     </row>
     <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B446" s="2" t="s">
         <v>6</v>
@@ -7621,7 +7624,7 @@
     </row>
     <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B447" s="2" t="s">
         <v>434</v>
@@ -7630,7 +7633,7 @@
     </row>
     <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B448" s="2" t="s">
         <v>30</v>
@@ -7639,16 +7642,16 @@
     </row>
     <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D449" s="0"/>
     </row>
     <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B450" s="2" t="s">
         <v>323</v>
@@ -7657,7 +7660,7 @@
     </row>
     <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B451" s="2" t="s">
         <v>133</v>
@@ -7666,7 +7669,7 @@
     </row>
     <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B452" s="2" t="s">
         <v>133</v>
@@ -7675,7 +7678,7 @@
     </row>
     <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B453" s="2" t="s">
         <v>133</v>
@@ -7684,7 +7687,7 @@
     </row>
     <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B454" s="2" t="s">
         <v>133</v>
@@ -7693,7 +7696,7 @@
     </row>
     <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B455" s="2" t="s">
         <v>277</v>
@@ -7702,16 +7705,16 @@
     </row>
     <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
+        <v>599</v>
+      </c>
+      <c r="B456" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="D456" s="0"/>
     </row>
     <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B457" s="2" t="s">
         <v>108</v>
@@ -7720,7 +7723,7 @@
     </row>
     <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="0" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B458" s="2" t="s">
         <v>192</v>
@@ -7729,16 +7732,16 @@
     </row>
     <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D459" s="0"/>
     </row>
     <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B460" s="2" t="s">
         <v>6</v>
@@ -7747,7 +7750,7 @@
     </row>
     <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B461" s="2" t="s">
         <v>6</v>
@@ -7756,7 +7759,7 @@
     </row>
     <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B462" s="2" t="s">
         <v>6</v>
@@ -7765,7 +7768,7 @@
     </row>
     <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B463" s="2" t="s">
         <v>20</v>
@@ -7774,7 +7777,7 @@
     </row>
     <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B464" s="2" t="s">
         <v>16</v>
@@ -7783,7 +7786,7 @@
     </row>
     <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B465" s="2" t="s">
         <v>6</v>
@@ -7792,97 +7795,97 @@
     </row>
     <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B466" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="B466" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="D466" s="0"/>
     </row>
     <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B467" s="2" t="s">
         <v>613</v>
-      </c>
-      <c r="B467" s="2" t="s">
-        <v>614</v>
       </c>
       <c r="D467" s="0"/>
     </row>
     <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B468" s="2" t="s">
         <v>615</v>
-      </c>
-      <c r="B468" s="2" t="s">
-        <v>616</v>
       </c>
       <c r="D468" s="0"/>
     </row>
     <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B469" s="2" t="s">
         <v>617</v>
-      </c>
-      <c r="B469" s="2" t="s">
-        <v>618</v>
       </c>
       <c r="D469" s="0"/>
     </row>
     <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="B470" s="2" t="s">
         <v>619</v>
-      </c>
-      <c r="B470" s="2" t="s">
-        <v>620</v>
       </c>
       <c r="D470" s="0"/>
     </row>
     <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A471" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="B471" s="2" t="s">
         <v>621</v>
-      </c>
-      <c r="B471" s="2" t="s">
-        <v>622</v>
       </c>
       <c r="D471" s="0"/>
     </row>
     <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="B472" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B472" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="D472" s="0"/>
     </row>
     <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B473" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B473" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="D473" s="0"/>
     </row>
     <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B474" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="B474" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="D474" s="0"/>
     </row>
     <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B475" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B475" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="D475" s="0"/>
     </row>
     <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B476" s="2" t="s">
         <v>14</v>
@@ -7891,25 +7894,25 @@
     </row>
     <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B477" s="2" t="s">
         <v>632</v>
-      </c>
-      <c r="B477" s="2" t="s">
-        <v>633</v>
       </c>
       <c r="D477" s="0"/>
     </row>
     <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B478" s="2" t="s">
         <v>634</v>
-      </c>
-      <c r="B478" s="2" t="s">
-        <v>635</v>
       </c>
       <c r="D478" s="0"/>
     </row>
     <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B479" s="2" t="s">
         <v>20</v>
@@ -7918,7 +7921,7 @@
     </row>
     <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B480" s="2" t="s">
         <v>120</v>
@@ -7927,7 +7930,7 @@
     </row>
     <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B481" s="2" t="s">
         <v>6</v>
@@ -7936,7 +7939,7 @@
     </row>
     <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B482" s="2" t="s">
         <v>6</v>
@@ -7945,16 +7948,16 @@
     </row>
     <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="B483" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B483" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="D483" s="0"/>
     </row>
     <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B484" s="2" t="s">
         <v>108</v>
@@ -7963,16 +7966,16 @@
     </row>
     <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B485" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B485" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="D485" s="0"/>
     </row>
     <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B486" s="2" t="s">
         <v>314</v>
@@ -7981,7 +7984,7 @@
     </row>
     <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B487" s="2" t="s">
         <v>6</v>
@@ -7990,16 +7993,16 @@
     </row>
     <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B488" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B488" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="D488" s="0"/>
     </row>
     <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B489" s="2" t="s">
         <v>275</v>
@@ -8008,16 +8011,16 @@
     </row>
     <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D490" s="0"/>
     </row>
     <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B491" s="2" t="s">
         <v>6</v>
@@ -8026,7 +8029,7 @@
     </row>
     <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B492" s="2" t="s">
         <v>120</v>
@@ -8035,7 +8038,7 @@
     </row>
     <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B493" s="2" t="s">
         <v>117</v>
@@ -8044,7 +8047,7 @@
     </row>
     <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A494" s="0" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B494" s="2" t="s">
         <v>6</v>
@@ -8053,7 +8056,7 @@
     </row>
     <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B495" s="2" t="s">
         <v>120</v>
@@ -8062,16 +8065,16 @@
     </row>
     <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
+        <v>655</v>
+      </c>
+      <c r="B496" s="2" t="s">
         <v>656</v>
-      </c>
-      <c r="B496" s="2" t="s">
-        <v>657</v>
       </c>
       <c r="D496" s="0"/>
     </row>
     <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B497" s="2" t="s">
         <v>6</v>
@@ -8080,25 +8083,25 @@
     </row>
     <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="B498" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B498" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="D498" s="0"/>
     </row>
     <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
+        <v>660</v>
+      </c>
+      <c r="B499" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="B499" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="D499" s="0"/>
     </row>
     <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B500" s="2" t="s">
         <v>6</v>
@@ -8107,7 +8110,7 @@
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B501" s="2" t="s">
         <v>30</v>
@@ -8116,88 +8119,88 @@
     </row>
     <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A502" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B502" s="2" t="s">
         <v>665</v>
-      </c>
-      <c r="B502" s="2" t="s">
-        <v>666</v>
       </c>
       <c r="D502" s="0"/>
     </row>
     <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="B503" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B503" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="D503" s="0"/>
     </row>
     <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
+        <v>668</v>
+      </c>
+      <c r="B504" s="2" t="s">
         <v>669</v>
-      </c>
-      <c r="B504" s="2" t="s">
-        <v>670</v>
       </c>
       <c r="D504" s="0"/>
     </row>
     <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="B505" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B505" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="D505" s="0"/>
     </row>
     <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="B506" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B506" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="D506" s="0"/>
     </row>
     <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A507" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B507" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B507" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="D507" s="0"/>
     </row>
     <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B508" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B508" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="D508" s="0"/>
     </row>
     <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="B509" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B509" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="D509" s="0"/>
     </row>
     <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D510" s="0"/>
     </row>
     <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B511" s="2" t="s">
         <v>30</v>
@@ -8206,7 +8209,7 @@
     </row>
     <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B512" s="2" t="s">
         <v>6</v>
@@ -8215,7 +8218,7 @@
     </row>
     <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B513" s="2" t="s">
         <v>6</v>
@@ -8224,34 +8227,34 @@
     </row>
     <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B514" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B514" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="D514" s="0"/>
     </row>
     <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="B515" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B515" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="D515" s="0"/>
     </row>
     <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="B516" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B516" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="D516" s="0"/>
     </row>
     <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B517" s="2" t="s">
         <v>275</v>
@@ -8260,7 +8263,7 @@
     </row>
     <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B518" s="2" t="s">
         <v>6</v>
@@ -8269,7 +8272,7 @@
     </row>
     <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B519" s="2" t="s">
         <v>30</v>
@@ -8278,7 +8281,7 @@
     </row>
     <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B520" s="2" t="s">
         <v>30</v>
@@ -8287,7 +8290,7 @@
     </row>
     <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B521" s="2" t="s">
         <v>434</v>
@@ -8296,7 +8299,7 @@
     </row>
     <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B522" s="2" t="s">
         <v>275</v>
@@ -8305,25 +8308,25 @@
     </row>
     <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
+        <v>696</v>
+      </c>
+      <c r="B523" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B523" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="D523" s="0"/>
     </row>
     <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B524" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B524" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="D524" s="0"/>
     </row>
     <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B525" s="2" t="s">
         <v>6</v>
@@ -8332,7 +8335,7 @@
     </row>
     <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B526" s="2" t="s">
         <v>6</v>
@@ -8345,7 +8348,7 @@
     </row>
     <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B528" s="2" t="s">
         <v>6</v>
@@ -8354,7 +8357,7 @@
     </row>
     <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B529" s="2" t="s">
         <v>6</v>
@@ -8363,7 +8366,7 @@
     </row>
     <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B530" s="2" t="s">
         <v>6</v>
@@ -8372,7 +8375,7 @@
     </row>
     <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B531" s="2" t="s">
         <v>6</v>
@@ -8381,7 +8384,7 @@
     </row>
     <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B532" s="2" t="s">
         <v>6</v>
@@ -8390,7 +8393,7 @@
     </row>
     <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B533" s="2" t="s">
         <v>6</v>
@@ -8399,7 +8402,7 @@
     </row>
     <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B534" s="2" t="s">
         <v>6</v>
@@ -8408,7 +8411,7 @@
     </row>
     <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B535" s="2" t="s">
         <v>6</v>
@@ -8417,7 +8420,7 @@
     </row>
     <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>6</v>
@@ -8426,7 +8429,7 @@
     </row>
     <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>30</v>
@@ -8435,16 +8438,16 @@
     </row>
     <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B538" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D538" s="0"/>
     </row>
     <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>30</v>
@@ -8453,7 +8456,7 @@
     </row>
     <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>6</v>
@@ -8462,7 +8465,7 @@
     </row>
     <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B541" s="2" t="s">
         <v>6</v>
@@ -8471,7 +8474,7 @@
     </row>
     <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B542" s="2" t="s">
         <v>18</v>
@@ -8480,7 +8483,7 @@
     </row>
     <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B543" s="2" t="s">
         <v>6</v>
@@ -8489,7 +8492,7 @@
     </row>
     <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B544" s="2" t="s">
         <v>65</v>
@@ -8498,7 +8501,7 @@
     </row>
     <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A545" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B545" s="2" t="s">
         <v>6</v>
@@ -8507,7 +8510,7 @@
     </row>
     <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B546" s="2" t="s">
         <v>6</v>
@@ -8516,7 +8519,7 @@
     </row>
     <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B547" s="2" t="s">
         <v>6</v>
@@ -8525,7 +8528,7 @@
     </row>
     <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B548" s="2" t="s">
         <v>6</v>
@@ -8534,7 +8537,7 @@
     </row>
     <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B549" s="2" t="s">
         <v>6</v>
@@ -8543,7 +8546,7 @@
     </row>
     <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B550" s="2" t="s">
         <v>6</v>
@@ -8552,7 +8555,7 @@
     </row>
     <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B551" s="2" t="s">
         <v>6</v>
@@ -8561,7 +8564,7 @@
     </row>
     <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B552" s="2" t="s">
         <v>6</v>
@@ -8570,7 +8573,7 @@
     </row>
     <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B553" s="2" t="s">
         <v>6</v>
@@ -8579,7 +8582,7 @@
     </row>
     <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>6</v>
@@ -8588,7 +8591,7 @@
     </row>
     <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>6</v>
@@ -8597,7 +8600,7 @@
     </row>
     <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>65</v>
@@ -8606,7 +8609,7 @@
     </row>
     <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>6</v>
@@ -8615,7 +8618,7 @@
     </row>
     <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>6</v>
@@ -8624,7 +8627,7 @@
     </row>
     <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>6</v>
@@ -8633,7 +8636,7 @@
     </row>
     <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>6</v>
@@ -8642,7 +8645,7 @@
     </row>
     <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>6</v>
@@ -8651,7 +8654,7 @@
     </row>
     <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B562" s="2" t="s">
         <v>117</v>
@@ -8660,7 +8663,7 @@
     </row>
     <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B563" s="2" t="s">
         <v>6</v>
@@ -8669,7 +8672,7 @@
     </row>
     <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B564" s="2" t="s">
         <v>6</v>
@@ -8678,7 +8681,7 @@
     </row>
     <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B565" s="2" t="s">
         <v>6</v>
@@ -8687,7 +8690,7 @@
     </row>
     <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B566" s="2" t="s">
         <v>6</v>
@@ -8696,7 +8699,7 @@
     </row>
     <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B567" s="2" t="s">
         <v>65</v>
@@ -8705,7 +8708,7 @@
     </row>
     <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B568" s="2" t="s">
         <v>6</v>
@@ -8714,7 +8717,7 @@
     </row>
     <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B569" s="2" t="s">
         <v>6</v>
@@ -8723,7 +8726,7 @@
     </row>
     <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B570" s="2" t="s">
         <v>6</v>
@@ -8732,7 +8735,7 @@
     </row>
     <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B571" s="2" t="s">
         <v>6</v>
@@ -8741,7 +8744,7 @@
     </row>
     <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>30</v>
@@ -8750,7 +8753,7 @@
     </row>
     <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>6</v>
@@ -8759,7 +8762,7 @@
     </row>
     <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>6</v>
@@ -8768,7 +8771,7 @@
     </row>
     <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>6</v>
@@ -8777,7 +8780,7 @@
     </row>
     <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>6</v>
@@ -8786,7 +8789,7 @@
     </row>
     <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B577" s="2" t="s">
         <v>6</v>
@@ -8795,7 +8798,7 @@
     </row>
     <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="B578" s="2" t="s">
         <v>6</v>
@@ -8804,7 +8807,7 @@
     </row>
     <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B579" s="2" t="s">
         <v>139</v>
@@ -8813,7 +8816,7 @@
     </row>
     <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B580" s="2" t="s">
         <v>117</v>
@@ -8822,7 +8825,7 @@
     </row>
     <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="0" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B581" s="2" t="s">
         <v>6</v>
@@ -8831,7 +8834,7 @@
     </row>
     <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B582" s="2" t="s">
         <v>6</v>
@@ -8840,7 +8843,7 @@
     </row>
     <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B583" s="2" t="s">
         <v>6</v>
@@ -8849,34 +8852,34 @@
     </row>
     <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B584" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D584" s="0"/>
     </row>
     <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B585" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D585" s="0"/>
     </row>
     <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D586" s="0"/>
     </row>
     <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B587" s="2" t="s">
         <v>6</v>
@@ -8885,7 +8888,7 @@
     </row>
     <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B588" s="2" t="s">
         <v>6</v>
@@ -8894,16 +8897,16 @@
     </row>
     <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
+        <v>763</v>
+      </c>
+      <c r="B589" s="2" t="s">
         <v>764</v>
-      </c>
-      <c r="B589" s="2" t="s">
-        <v>765</v>
       </c>
       <c r="D589" s="0"/>
     </row>
     <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>6</v>
@@ -8912,7 +8915,7 @@
     </row>
     <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>6</v>
@@ -8921,7 +8924,7 @@
     </row>
     <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>6</v>
@@ -8930,7 +8933,7 @@
     </row>
     <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>6</v>
@@ -8939,7 +8942,7 @@
     </row>
     <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>6</v>
@@ -8948,7 +8951,7 @@
     </row>
     <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B595" s="2" t="s">
         <v>6</v>
@@ -8957,7 +8960,7 @@
     </row>
     <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B596" s="2" t="s">
         <v>6</v>
@@ -8966,7 +8969,7 @@
     </row>
     <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B597" s="2" t="s">
         <v>6</v>
@@ -8975,7 +8978,7 @@
     </row>
     <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B598" s="2" t="s">
         <v>6</v>
@@ -8984,7 +8987,7 @@
     </row>
     <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B599" s="2" t="s">
         <v>6</v>
@@ -8993,7 +8996,7 @@
     </row>
     <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B600" s="2" t="s">
         <v>6</v>
@@ -9002,7 +9005,7 @@
     </row>
     <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B601" s="2" t="s">
         <v>6</v>
@@ -9011,7 +9014,7 @@
     </row>
     <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B602" s="2" t="s">
         <v>6</v>
@@ -9020,7 +9023,7 @@
     </row>
     <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B603" s="2" t="s">
         <v>6</v>
@@ -9029,7 +9032,7 @@
     </row>
     <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="B604" s="2" t="s">
         <v>6</v>
@@ -9038,7 +9041,7 @@
     </row>
     <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B605" s="2" t="s">
         <v>6</v>
@@ -9047,7 +9050,7 @@
     </row>
     <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B606" s="2" t="s">
         <v>6</v>
@@ -9056,7 +9059,7 @@
     </row>
     <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B607" s="2" t="s">
         <v>6</v>
@@ -9065,7 +9068,7 @@
     </row>
     <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B608" s="2" t="s">
         <v>6</v>
@@ -9074,7 +9077,7 @@
     </row>
     <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>6</v>
@@ -9083,7 +9086,7 @@
     </row>
     <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>6</v>
@@ -9092,7 +9095,7 @@
     </row>
     <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>6</v>
@@ -9101,7 +9104,7 @@
     </row>
     <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>6</v>
@@ -9110,7 +9113,7 @@
     </row>
     <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="B613" s="2" t="s">
         <v>6</v>
@@ -9119,7 +9122,7 @@
     </row>
     <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B614" s="2" t="s">
         <v>6</v>
@@ -9128,7 +9131,7 @@
     </row>
     <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="B615" s="2" t="s">
         <v>6</v>
@@ -9137,7 +9140,7 @@
     </row>
     <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B616" s="2" t="s">
         <v>6</v>
@@ -9146,7 +9149,7 @@
     </row>
     <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="B617" s="2" t="s">
         <v>6</v>
@@ -9155,7 +9158,7 @@
     </row>
     <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B618" s="2" t="s">
         <v>6</v>
@@ -9164,7 +9167,7 @@
     </row>
     <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B619" s="2" t="s">
         <v>6</v>
@@ -9173,7 +9176,7 @@
     </row>
     <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B620" s="2" t="s">
         <v>6</v>
@@ -9182,7 +9185,7 @@
     </row>
     <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="B621" s="2" t="s">
         <v>6</v>
@@ -9191,7 +9194,7 @@
     </row>
     <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B622" s="2" t="s">
         <v>6</v>
@@ -9200,7 +9203,7 @@
     </row>
     <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B623" s="2" t="s">
         <v>6</v>
@@ -9209,7 +9212,7 @@
     </row>
     <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B624" s="2" t="s">
         <v>6</v>
@@ -9218,7 +9221,7 @@
     </row>
     <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B625" s="2" t="s">
         <v>6</v>
@@ -9227,7 +9230,7 @@
     </row>
     <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>6</v>
@@ -9236,7 +9239,7 @@
     </row>
     <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>6</v>
@@ -9245,7 +9248,7 @@
     </row>
     <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B628" s="2" t="s">
         <v>6</v>
@@ -9254,7 +9257,7 @@
     </row>
     <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>6</v>
@@ -9263,7 +9266,7 @@
     </row>
     <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>6</v>
@@ -9272,7 +9275,7 @@
     </row>
     <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="0" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B631" s="2" t="s">
         <v>30</v>
@@ -9281,7 +9284,7 @@
     </row>
     <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B632" s="2" t="s">
         <v>6</v>
@@ -9290,7 +9293,7 @@
     </row>
     <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B633" s="2" t="s">
         <v>6</v>
@@ -9299,7 +9302,7 @@
     </row>
     <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B634" s="2" t="s">
         <v>6</v>
@@ -9308,16 +9311,16 @@
     </row>
     <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
+        <v>810</v>
+      </c>
+      <c r="B635" s="2" t="s">
         <v>811</v>
-      </c>
-      <c r="B635" s="2" t="s">
-        <v>812</v>
       </c>
       <c r="D635" s="0"/>
     </row>
     <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B636" s="2" t="s">
         <v>6</v>
@@ -9326,7 +9329,7 @@
     </row>
     <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B637" s="2" t="s">
         <v>6</v>
@@ -9335,7 +9338,7 @@
     </row>
     <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B638" s="2" t="s">
         <v>6</v>
@@ -9344,16 +9347,16 @@
     </row>
     <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B639" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D639" s="0"/>
     </row>
     <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B640" s="2" t="s">
         <v>6</v>
@@ -9362,7 +9365,7 @@
     </row>
     <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B641" s="2" t="s">
         <v>6</v>
@@ -9371,7 +9374,7 @@
     </row>
     <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B642" s="2" t="s">
         <v>6</v>
@@ -9380,7 +9383,7 @@
     </row>
     <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B643" s="2" t="s">
         <v>6</v>
@@ -9389,7 +9392,7 @@
     </row>
     <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B644" s="2" t="s">
         <v>6</v>
@@ -9398,7 +9401,7 @@
     </row>
     <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B645" s="2" t="s">
         <v>6</v>
@@ -9407,7 +9410,7 @@
     </row>
     <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B646" s="2" t="s">
         <v>6</v>
@@ -9416,7 +9419,7 @@
     </row>
     <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B647" s="2" t="s">
         <v>6</v>
@@ -9425,7 +9428,7 @@
     </row>
     <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B648" s="2" t="s">
         <v>6</v>
@@ -9434,7 +9437,7 @@
     </row>
     <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B649" s="2" t="s">
         <v>120</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B650" s="2" t="s">
         <v>6</v>
@@ -9452,7 +9455,7 @@
     </row>
     <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B651" s="2" t="s">
         <v>6</v>
@@ -9461,7 +9464,7 @@
     </row>
     <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B652" s="2" t="s">
         <v>6</v>
@@ -9470,7 +9473,7 @@
     </row>
     <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B653" s="2" t="s">
         <v>6</v>
@@ -9479,7 +9482,7 @@
     </row>
     <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B654" s="2" t="s">
         <v>251</v>
@@ -9488,7 +9491,7 @@
     </row>
     <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B655" s="2" t="s">
         <v>6</v>
@@ -9497,7 +9500,7 @@
     </row>
     <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B656" s="2" t="s">
         <v>6</v>
@@ -9506,10 +9509,13 @@
     </row>
     <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
+        <v>833</v>
+      </c>
+      <c r="B657" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="C657" s="0" t="s">
         <v>834</v>
-      </c>
-      <c r="B657" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D657" s="0"/>
     </row>
@@ -9554,7 +9560,7 @@
         <v>839</v>
       </c>
       <c r="B662" s="2" t="s">
-        <v>812</v>
+        <v>6</v>
       </c>
       <c r="D662" s="0"/>
     </row>
@@ -9563,7 +9569,7 @@
         <v>840</v>
       </c>
       <c r="B663" s="2" t="s">
-        <v>6</v>
+        <v>811</v>
       </c>
       <c r="D663" s="0"/>
     </row>
@@ -9581,7 +9587,7 @@
         <v>842</v>
       </c>
       <c r="B665" s="2" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="D665" s="0"/>
     </row>
@@ -9590,7 +9596,7 @@
         <v>843</v>
       </c>
       <c r="B666" s="2" t="s">
-        <v>6</v>
+        <v>266</v>
       </c>
       <c r="D666" s="0"/>
     </row>
@@ -9635,7 +9641,7 @@
         <v>848</v>
       </c>
       <c r="B671" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D671" s="0"/>
     </row>
@@ -9644,7 +9650,7 @@
         <v>849</v>
       </c>
       <c r="B672" s="2" t="s">
-        <v>468</v>
+        <v>30</v>
       </c>
       <c r="D672" s="0"/>
     </row>
@@ -9653,7 +9659,7 @@
         <v>850</v>
       </c>
       <c r="B673" s="2" t="s">
-        <v>6</v>
+        <v>467</v>
       </c>
       <c r="D673" s="0"/>
     </row>
@@ -9671,16 +9677,16 @@
         <v>852</v>
       </c>
       <c r="B675" s="2" t="s">
-        <v>853</v>
+        <v>6</v>
       </c>
       <c r="D675" s="0"/>
     </row>
     <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
+        <v>853</v>
+      </c>
+      <c r="B676" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B676" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="D676" s="0"/>
     </row>
@@ -9689,7 +9695,7 @@
         <v>855</v>
       </c>
       <c r="B677" s="2" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
       <c r="D677" s="0"/>
     </row>
@@ -9725,7 +9731,7 @@
         <v>859</v>
       </c>
       <c r="B681" s="2" t="s">
-        <v>65</v>
+        <v>6</v>
       </c>
       <c r="D681" s="0"/>
     </row>
@@ -9733,7 +9739,7 @@
       <c r="A682" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="B682" s="5" t="s">
+      <c r="B682" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D682" s="0"/>
@@ -9742,8 +9748,8 @@
       <c r="A683" s="0" t="s">
         <v>861</v>
       </c>
-      <c r="B683" s="2" t="s">
-        <v>582</v>
+      <c r="B683" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="D683" s="0"/>
     </row>
@@ -9752,7 +9758,7 @@
         <v>862</v>
       </c>
       <c r="B684" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D684" s="0"/>
     </row>
@@ -9761,7 +9767,7 @@
         <v>863</v>
       </c>
       <c r="B685" s="2" t="s">
-        <v>6</v>
+        <v>581</v>
       </c>
       <c r="D685" s="0"/>
     </row>
@@ -9779,7 +9785,7 @@
         <v>865</v>
       </c>
       <c r="B687" s="2" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D687" s="0"/>
     </row>
@@ -9788,7 +9794,7 @@
         <v>866</v>
       </c>
       <c r="B688" s="2" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="D688" s="0"/>
     </row>
@@ -9797,16 +9803,16 @@
         <v>867</v>
       </c>
       <c r="B689" s="2" t="s">
-        <v>868</v>
+        <v>6</v>
       </c>
       <c r="D689" s="0"/>
     </row>
     <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="B690" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B690" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="D690" s="0"/>
     </row>
@@ -9815,7 +9821,7 @@
         <v>870</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D691" s="0"/>
     </row>
@@ -9869,7 +9875,7 @@
         <v>876</v>
       </c>
       <c r="B697" s="2" t="s">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="D697" s="0"/>
     </row>
@@ -9878,7 +9884,7 @@
         <v>877</v>
       </c>
       <c r="B698" s="2" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="D698" s="0"/>
     </row>
@@ -9923,7 +9929,7 @@
         <v>882</v>
       </c>
       <c r="B703" s="2" t="s">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D703" s="0"/>
     </row>
@@ -9932,7 +9938,7 @@
         <v>883</v>
       </c>
       <c r="B704" s="2" t="s">
-        <v>117</v>
+        <v>483</v>
       </c>
       <c r="D704" s="0"/>
     </row>
@@ -9941,7 +9947,7 @@
         <v>884</v>
       </c>
       <c r="B705" s="2" t="s">
-        <v>6</v>
+        <v>117</v>
       </c>
       <c r="D705" s="0"/>
     </row>
@@ -9968,7 +9974,7 @@
         <v>887</v>
       </c>
       <c r="B708" s="2" t="s">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="D708" s="0"/>
     </row>
@@ -9977,7 +9983,7 @@
         <v>888</v>
       </c>
       <c r="B709" s="2" t="s">
-        <v>6</v>
+        <v>251</v>
       </c>
       <c r="D709" s="0"/>
     </row>
@@ -9995,7 +10001,7 @@
         <v>890</v>
       </c>
       <c r="B711" s="2" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="D711" s="0"/>
     </row>
@@ -10004,7 +10010,7 @@
         <v>891</v>
       </c>
       <c r="B712" s="2" t="s">
-        <v>6</v>
+        <v>811</v>
       </c>
       <c r="D712" s="0"/>
     </row>
@@ -10022,7 +10028,7 @@
         <v>893</v>
       </c>
       <c r="B714" s="2" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="D714" s="0"/>
     </row>
@@ -10031,7 +10037,7 @@
         <v>894</v>
       </c>
       <c r="B715" s="2" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D715" s="0"/>
     </row>
@@ -10103,7 +10109,7 @@
         <v>902</v>
       </c>
       <c r="B723" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D723" s="0"/>
     </row>
@@ -10112,7 +10118,7 @@
         <v>903</v>
       </c>
       <c r="B724" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D724" s="0"/>
     </row>
@@ -10121,7 +10127,7 @@
         <v>904</v>
       </c>
       <c r="B725" s="2" t="s">
-        <v>812</v>
+        <v>6</v>
       </c>
       <c r="D725" s="0"/>
     </row>
@@ -10130,7 +10136,7 @@
         <v>905</v>
       </c>
       <c r="B726" s="2" t="s">
-        <v>6</v>
+        <v>811</v>
       </c>
       <c r="D726" s="0"/>
     </row>
@@ -10148,7 +10154,7 @@
         <v>907</v>
       </c>
       <c r="B728" s="2" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="D728" s="0"/>
     </row>
@@ -10157,7 +10163,7 @@
         <v>908</v>
       </c>
       <c r="B729" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D729" s="0"/>
     </row>
@@ -10166,7 +10172,7 @@
         <v>909</v>
       </c>
       <c r="B730" s="2" t="s">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="D730" s="0"/>
     </row>
@@ -10175,7 +10181,7 @@
         <v>910</v>
       </c>
       <c r="B731" s="2" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="D731" s="0"/>
     </row>
@@ -10184,7 +10190,7 @@
         <v>911</v>
       </c>
       <c r="B732" s="2" t="s">
-        <v>6</v>
+        <v>139</v>
       </c>
       <c r="D732" s="0"/>
     </row>
@@ -10211,7 +10217,7 @@
         <v>914</v>
       </c>
       <c r="B735" s="2" t="s">
-        <v>117</v>
+        <v>6</v>
       </c>
       <c r="D735" s="0"/>
     </row>
@@ -10220,7 +10226,7 @@
         <v>915</v>
       </c>
       <c r="B736" s="2" t="s">
-        <v>484</v>
+        <v>117</v>
       </c>
       <c r="D736" s="0"/>
     </row>
@@ -10229,7 +10235,7 @@
         <v>916</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>6</v>
+        <v>483</v>
       </c>
       <c r="D737" s="0"/>
     </row>
@@ -10265,13 +10271,18 @@
         <v>920</v>
       </c>
       <c r="B741" s="2" t="s">
-        <v>468</v>
+        <v>6</v>
       </c>
       <c r="D741" s="0"/>
     </row>
     <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A742" s="1"/>
-      <c r="B742" s="0"/>
+      <c r="A742" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="B742" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="D742" s="0"/>
     </row>
     <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="1"/>
@@ -10330,11 +10341,11 @@
       <c r="B756" s="0"/>
     </row>
     <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A757" s="4"/>
+      <c r="A757" s="1"/>
       <c r="B757" s="0"/>
     </row>
     <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A758" s="1"/>
+      <c r="A758" s="4"/>
       <c r="B758" s="0"/>
     </row>
     <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10362,7 +10373,7 @@
       <c r="B764" s="0"/>
     </row>
     <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A765" s="4"/>
+      <c r="A765" s="1"/>
       <c r="B765" s="0"/>
     </row>
     <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10370,7 +10381,7 @@
       <c r="B766" s="0"/>
     </row>
     <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A767" s="1"/>
+      <c r="A767" s="4"/>
       <c r="B767" s="0"/>
     </row>
     <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10399,7 +10410,7 @@
     </row>
     <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="1"/>
-      <c r="B774" s="6"/>
+      <c r="B774" s="0"/>
     </row>
     <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="1"/>
@@ -10407,7 +10418,7 @@
     </row>
     <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="1"/>
-      <c r="B776" s="0"/>
+      <c r="B776" s="6"/>
     </row>
     <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="1"/>
@@ -10466,11 +10477,11 @@
       <c r="B790" s="0"/>
     </row>
     <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A791" s="4"/>
+      <c r="A791" s="1"/>
       <c r="B791" s="0"/>
     </row>
     <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A792" s="1"/>
+      <c r="A792" s="4"/>
       <c r="B792" s="0"/>
     </row>
     <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10503,11 +10514,11 @@
     </row>
     <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="1"/>
-      <c r="B800" s="6"/>
+      <c r="B800" s="0"/>
     </row>
     <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="1"/>
-      <c r="B801" s="0"/>
+      <c r="B801" s="6"/>
     </row>
     <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="1"/>
@@ -10746,7 +10757,7 @@
       <c r="B860" s="0"/>
     </row>
     <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A861" s="4"/>
+      <c r="A861" s="1"/>
       <c r="B861" s="0"/>
     </row>
     <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10758,7 +10769,7 @@
       <c r="B863" s="0"/>
     </row>
     <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A864" s="1"/>
+      <c r="A864" s="4"/>
       <c r="B864" s="0"/>
     </row>
     <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10834,19 +10845,19 @@
       <c r="B882" s="0"/>
     </row>
     <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A883" s="4"/>
+      <c r="A883" s="1"/>
       <c r="B883" s="0"/>
     </row>
     <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A884" s="1"/>
+      <c r="A884" s="4"/>
       <c r="B884" s="0"/>
     </row>
     <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A885" s="4"/>
+      <c r="A885" s="1"/>
       <c r="B885" s="0"/>
     </row>
     <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A886" s="1"/>
+      <c r="A886" s="4"/>
       <c r="B886" s="0"/>
     </row>
     <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10894,7 +10905,7 @@
       <c r="B897" s="0"/>
     </row>
     <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A898" s="4"/>
+      <c r="A898" s="1"/>
       <c r="B898" s="0"/>
     </row>
     <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10902,24 +10913,24 @@
       <c r="B899" s="0"/>
     </row>
     <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A900" s="1"/>
+      <c r="A900" s="4"/>
       <c r="B900" s="0"/>
     </row>
     <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="1"/>
-      <c r="B901" s="6"/>
+      <c r="B901" s="0"/>
     </row>
     <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="1"/>
-      <c r="B902" s="0"/>
+      <c r="B902" s="6"/>
     </row>
     <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="1"/>
-      <c r="B903" s="6"/>
+      <c r="B903" s="0"/>
     </row>
     <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="1"/>
-      <c r="B904" s="0"/>
+      <c r="B904" s="6"/>
     </row>
     <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="1"/>
@@ -10947,18 +10958,18 @@
     </row>
     <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A911" s="1"/>
-      <c r="B911" s="6"/>
+      <c r="B911" s="0"/>
     </row>
     <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A912" s="1"/>
-      <c r="B912" s="0"/>
+      <c r="B912" s="6"/>
     </row>
     <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A913" s="4"/>
+      <c r="A913" s="1"/>
       <c r="B913" s="0"/>
     </row>
     <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A914" s="1"/>
+      <c r="A914" s="4"/>
       <c r="B914" s="0"/>
     </row>
     <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10971,18 +10982,18 @@
     </row>
     <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A917" s="1"/>
-      <c r="B917" s="6"/>
+      <c r="B917" s="0"/>
     </row>
     <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A918" s="1"/>
       <c r="B918" s="6"/>
     </row>
     <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A919" s="4"/>
-      <c r="B919" s="0"/>
+      <c r="A919" s="1"/>
+      <c r="B919" s="6"/>
     </row>
     <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A920" s="1"/>
+      <c r="A920" s="4"/>
       <c r="B920" s="0"/>
     </row>
     <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10990,11 +11001,11 @@
       <c r="B921" s="0"/>
     </row>
     <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A922" s="4"/>
+      <c r="A922" s="1"/>
       <c r="B922" s="0"/>
     </row>
     <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A923" s="1"/>
+      <c r="A923" s="4"/>
       <c r="B923" s="0"/>
     </row>
     <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11035,11 +11046,11 @@
     </row>
     <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A933" s="1"/>
-      <c r="B933" s="6"/>
+      <c r="B933" s="0"/>
     </row>
     <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A934" s="1"/>
-      <c r="B934" s="0"/>
+      <c r="B934" s="6"/>
     </row>
     <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A935" s="1"/>
@@ -11055,22 +11066,22 @@
     </row>
     <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A938" s="1"/>
-      <c r="B938" s="6"/>
+      <c r="B938" s="0"/>
     </row>
     <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A939" s="1"/>
-      <c r="B939" s="0"/>
+      <c r="B939" s="6"/>
     </row>
     <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A940" s="1"/>
-      <c r="B940" s="6"/>
-      <c r="D940" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B940" s="0"/>
     </row>
     <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A941" s="1"/>
-      <c r="B941" s="0"/>
+      <c r="B941" s="6"/>
+      <c r="D941" s="2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A942" s="1"/>
@@ -11082,14 +11093,14 @@
     </row>
     <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A944" s="1"/>
-      <c r="B944" s="6"/>
+      <c r="B944" s="0"/>
     </row>
     <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A945" s="1"/>
-      <c r="B945" s="0"/>
+      <c r="B945" s="6"/>
     </row>
     <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A946" s="4"/>
+      <c r="A946" s="1"/>
       <c r="B946" s="0"/>
     </row>
     <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11105,7 +11116,7 @@
       <c r="B949" s="0"/>
     </row>
     <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A950" s="1"/>
+      <c r="A950" s="4"/>
       <c r="B950" s="0"/>
     </row>
     <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11117,7 +11128,7 @@
       <c r="B952" s="0"/>
     </row>
     <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A953" s="4"/>
+      <c r="A953" s="1"/>
       <c r="B953" s="0"/>
     </row>
     <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,7 +11144,7 @@
       <c r="B956" s="0"/>
     </row>
     <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A957" s="1"/>
+      <c r="A957" s="4"/>
       <c r="B957" s="0"/>
     </row>
     <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11169,36 +11180,36 @@
       <c r="B965" s="0"/>
     </row>
     <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A966" s="4"/>
+      <c r="A966" s="1"/>
       <c r="B966" s="0"/>
     </row>
     <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A967" s="1"/>
+      <c r="A967" s="4"/>
       <c r="B967" s="0"/>
     </row>
     <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A968" s="4"/>
+      <c r="A968" s="1"/>
       <c r="B968" s="0"/>
     </row>
     <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A969" s="4"/>
-      <c r="B969" s="6"/>
+      <c r="B969" s="0"/>
     </row>
     <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A970" s="1"/>
+      <c r="A970" s="4"/>
       <c r="B970" s="6"/>
     </row>
     <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A971" s="4"/>
+      <c r="A971" s="1"/>
       <c r="B971" s="6"/>
     </row>
     <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A972" s="1"/>
+      <c r="A972" s="4"/>
       <c r="B972" s="6"/>
     </row>
     <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A973" s="1"/>
-      <c r="B973" s="0"/>
+      <c r="B973" s="6"/>
     </row>
     <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A974" s="1"/>
@@ -11210,7 +11221,7 @@
     </row>
     <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A976" s="1"/>
-      <c r="B976" s="6"/>
+      <c r="B976" s="0"/>
     </row>
     <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A977" s="1"/>
@@ -11226,26 +11237,27 @@
     </row>
     <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A980" s="1"/>
-      <c r="B980" s="0"/>
+      <c r="B980" s="6"/>
     </row>
     <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A981" s="1"/>
       <c r="B981" s="0"/>
     </row>
-    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B989" s="4"/>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A982" s="1"/>
+      <c r="B982" s="0"/>
     </row>
     <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B990" s="4"/>
     </row>
-    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1001" s="4"/>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B991" s="4"/>
     </row>
     <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1002" s="4"/>
     </row>
-    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1017" s="4"/>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1003" s="4"/>
     </row>
     <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1018" s="4"/>
@@ -11262,23 +11274,23 @@
     <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1022" s="4"/>
     </row>
-    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1033" s="4"/>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1023" s="4"/>
     </row>
     <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1034" s="4"/>
     </row>
-    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1051" s="4"/>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1035" s="4"/>
     </row>
     <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1052" s="4"/>
     </row>
-    <row r="1055" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1055" s="4"/>
-    </row>
-    <row r="1059" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1059" s="4"/>
+    <row r="1053" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1053" s="4"/>
+    </row>
+    <row r="1056" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1056" s="4"/>
     </row>
     <row r="1060" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1060" s="4"/>
@@ -11289,23 +11301,23 @@
     <row r="1062" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1062" s="4"/>
     </row>
-    <row r="1084" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1084" s="4"/>
+    <row r="1063" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1063" s="4"/>
     </row>
     <row r="1085" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1085" s="4"/>
     </row>
-    <row r="1122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1122" s="4"/>
-    </row>
-    <row r="1128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1128" s="4"/>
-    </row>
-    <row r="1164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1164" s="4"/>
-    </row>
-    <row r="1167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1167" s="4"/>
+    <row r="1086" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1086" s="4"/>
+    </row>
+    <row r="1123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1123" s="4"/>
+    </row>
+    <row r="1129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1129" s="4"/>
+    </row>
+    <row r="1165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1165" s="4"/>
     </row>
     <row r="1168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1168" s="4"/>
@@ -11316,20 +11328,20 @@
     <row r="1170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1170" s="4"/>
     </row>
-    <row r="1195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1195" s="4"/>
-    </row>
-    <row r="1197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1197" s="4"/>
-    </row>
-    <row r="1207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1207" s="4"/>
-    </row>
-    <row r="1212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1212" s="4"/>
-    </row>
-    <row r="1242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1242" s="4"/>
+    <row r="1171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1171" s="4"/>
+    </row>
+    <row r="1196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1196" s="4"/>
+    </row>
+    <row r="1198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1198" s="4"/>
+    </row>
+    <row r="1208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1208" s="4"/>
+    </row>
+    <row r="1213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1213" s="4"/>
     </row>
     <row r="1243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1243" s="4"/>
@@ -11352,41 +11364,41 @@
     <row r="1249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1249" s="4"/>
     </row>
-    <row r="1463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1463" s="4"/>
-    </row>
-    <row r="1466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1466" s="4"/>
-    </row>
-    <row r="1511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1511" s="4"/>
-    </row>
-    <row r="1547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1547" s="4"/>
-    </row>
-    <row r="1555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1555" s="4"/>
-    </row>
-    <row r="1586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1586" s="4"/>
-    </row>
-    <row r="1591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1591" s="4"/>
+    <row r="1250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1250" s="4"/>
+    </row>
+    <row r="1464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1464" s="4"/>
+    </row>
+    <row r="1467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1467" s="4"/>
+    </row>
+    <row r="1512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1512" s="4"/>
+    </row>
+    <row r="1548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1548" s="4"/>
+    </row>
+    <row r="1556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1556" s="4"/>
+    </row>
+    <row r="1587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1587" s="4"/>
     </row>
     <row r="1592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1592" s="4"/>
     </row>
-    <row r="1595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1595" s="4"/>
-    </row>
-    <row r="1597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1597" s="4"/>
-    </row>
-    <row r="1599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1599" s="4"/>
-    </row>
-    <row r="1602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1602" s="4"/>
+    <row r="1593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1593" s="4"/>
+    </row>
+    <row r="1596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1596" s="4"/>
+    </row>
+    <row r="1598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1598" s="4"/>
+    </row>
+    <row r="1600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1600" s="4"/>
     </row>
     <row r="1603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1603" s="4"/>
@@ -11394,62 +11406,62 @@
     <row r="1604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1604" s="4"/>
     </row>
-    <row r="1606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1606" s="4"/>
-    </row>
-    <row r="1608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1608" s="4"/>
-    </row>
-    <row r="1611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1611" s="4"/>
-    </row>
-    <row r="1618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1618" s="4"/>
-    </row>
-    <row r="1621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1621" s="4"/>
-      <c r="C1621" s="0" t="n">
+    <row r="1605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1605" s="4"/>
+    </row>
+    <row r="1607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1607" s="4"/>
+    </row>
+    <row r="1609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1609" s="4"/>
+    </row>
+    <row r="1612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1612" s="4"/>
+    </row>
+    <row r="1619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1619" s="4"/>
+    </row>
+    <row r="1622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1622" s="4"/>
+      <c r="C1622" s="0" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="1626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1626" s="4"/>
     </row>
     <row r="1627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1627" s="4"/>
     </row>
-    <row r="1630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1630" s="4"/>
-    </row>
-    <row r="1650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1650" s="4"/>
-    </row>
-    <row r="1655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1655" s="4"/>
+    <row r="1628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1628" s="4"/>
+    </row>
+    <row r="1631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1631" s="4"/>
+    </row>
+    <row r="1651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1651" s="4"/>
     </row>
     <row r="1656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1656" s="4"/>
     </row>
-    <row r="1671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1671" s="4"/>
+    <row r="1657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1657" s="4"/>
     </row>
     <row r="1672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1672" s="4"/>
     </row>
-    <row r="1713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1713" s="4"/>
-    </row>
-    <row r="1721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1721" s="4"/>
+    <row r="1673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1673" s="4"/>
+    </row>
+    <row r="1714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1714" s="4"/>
     </row>
     <row r="1722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1722" s="4"/>
     </row>
-    <row r="1747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1747" s="4"/>
-    </row>
-    <row r="1817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1817" s="4"/>
+    <row r="1723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1723" s="4"/>
+    </row>
+    <row r="1748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1748" s="4"/>
     </row>
     <row r="1818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1818" s="4"/>
@@ -11457,24 +11469,27 @@
     <row r="1819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1819" s="4"/>
     </row>
-    <row r="1839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1839" s="4"/>
-    </row>
-    <row r="1841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1841" s="4"/>
-    </row>
-    <row r="1854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1854" s="4"/>
+    <row r="1820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1820" s="4"/>
+    </row>
+    <row r="1840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1840" s="4"/>
+    </row>
+    <row r="1842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1842" s="4"/>
     </row>
     <row r="1855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1855" s="4"/>
     </row>
-    <row r="1869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1869" s="4"/>
-    </row>
-    <row r="1875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1875" s="4"/>
-      <c r="C1875" s="0" t="n">
+    <row r="1856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1856" s="4"/>
+    </row>
+    <row r="1870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1870" s="4"/>
+    </row>
+    <row r="1876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1876" s="4"/>
+      <c r="C1876" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11496,8 +11511,8 @@
   </sheetPr>
   <dimension ref="A1:C162"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11523,7 +11538,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -11538,7 +11553,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>30</v>
@@ -11546,7 +11561,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>30</v>
@@ -11554,7 +11569,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
@@ -11562,7 +11577,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
@@ -11570,7 +11585,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>6</v>
@@ -11578,15 +11593,15 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>65</v>
@@ -11594,7 +11609,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>6</v>
@@ -11602,7 +11617,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>14</v>
@@ -11610,7 +11625,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>14</v>
@@ -11618,23 +11633,23 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>296</v>
@@ -11642,7 +11657,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>14</v>
@@ -11666,7 +11681,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>14</v>
@@ -11674,7 +11689,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>14</v>
@@ -11749,12 +11764,12 @@
         <v>186</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>14</v>
@@ -11762,18 +11777,18 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
+        <v>945</v>
+      </c>
+      <c r="B33" s="0" t="s">
         <v>944</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>943</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11810,63 +11825,63 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>952</v>
+      </c>
+      <c r="B41" s="0" t="s">
         <v>951</v>
-      </c>
-      <c r="B41" s="0" t="s">
-        <v>950</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
+        <v>955</v>
+      </c>
+      <c r="B43" s="0" t="s">
         <v>954</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>953</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>280</v>
@@ -11874,39 +11889,39 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>112</v>
@@ -11914,7 +11929,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>130</v>
@@ -11922,39 +11937,39 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
+        <v>970</v>
+      </c>
+      <c r="B53" s="0" t="s">
         <v>969</v>
-      </c>
-      <c r="B53" s="0" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>6</v>
@@ -11962,7 +11977,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>30</v>
@@ -11970,7 +11985,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>20</v>
@@ -11978,7 +11993,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>73</v>
@@ -11986,7 +12001,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>14</v>
@@ -11994,7 +12009,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>14</v>
@@ -12002,63 +12017,63 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>987</v>
+      </c>
+      <c r="B67" s="0" t="s">
         <v>986</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>985</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>280</v>
@@ -12066,39 +12081,39 @@
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>112</v>
@@ -12106,7 +12121,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>130</v>
@@ -12114,39 +12129,39 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>6</v>
@@ -12154,7 +12169,7 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>30</v>
@@ -12162,7 +12177,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>20</v>
@@ -12170,7 +12185,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>73</v>
@@ -12178,7 +12193,7 @@
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>14</v>
@@ -12186,7 +12201,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>14</v>
@@ -12197,12 +12212,12 @@
         <v>255</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>14</v>
@@ -12210,7 +12225,7 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>14</v>
@@ -12218,7 +12233,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>14</v>
@@ -12226,7 +12241,7 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>14</v>
@@ -12234,7 +12249,7 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>120</v>
@@ -12242,7 +12257,7 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>120</v>
@@ -12250,7 +12265,7 @@
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>6</v>
@@ -12258,7 +12273,7 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>6</v>
@@ -12266,47 +12281,47 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
+        <v>524</v>
+      </c>
+      <c r="B99" s="0" t="s">
         <v>525</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B100" s="0" t="s">
         <v>263</v>
@@ -12314,7 +12329,7 @@
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>85</v>
@@ -12322,10 +12337,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12333,7 +12348,7 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B104" s="0" t="s">
         <v>30</v>
@@ -12341,7 +12356,7 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B105" s="0" t="s">
         <v>30</v>
@@ -12349,7 +12364,7 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B106" s="0" t="s">
         <v>30</v>
@@ -12357,7 +12372,7 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B107" s="0" t="s">
         <v>30</v>
@@ -12365,15 +12380,15 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B109" s="0" t="s">
         <v>65</v>
@@ -12381,7 +12396,7 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B110" s="0" t="s">
         <v>6</v>
@@ -12389,7 +12404,7 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B111" s="0" t="s">
         <v>65</v>
@@ -12397,7 +12412,7 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B112" s="0" t="s">
         <v>6</v>
@@ -12405,7 +12420,7 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B113" s="0" t="s">
         <v>6</v>
@@ -12413,7 +12428,7 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B114" s="0" t="s">
         <v>6</v>
@@ -12421,7 +12436,7 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B115" s="0" t="s">
         <v>6</v>
@@ -12429,7 +12444,7 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B116" s="0" t="s">
         <v>6</v>
@@ -12437,7 +12452,7 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B117" s="0" t="s">
         <v>6</v>
@@ -12445,7 +12460,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B118" s="0" t="s">
         <v>6</v>
@@ -12453,7 +12468,7 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B119" s="0" t="s">
         <v>6</v>
@@ -12461,7 +12476,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B120" s="0" t="s">
         <v>6</v>
@@ -12469,7 +12484,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B121" s="0" t="s">
         <v>6</v>
@@ -12477,7 +12492,7 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B122" s="0" t="s">
         <v>6</v>
@@ -12485,7 +12500,7 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B123" s="0" t="s">
         <v>6</v>
@@ -12493,7 +12508,7 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B124" s="0" t="s">
         <v>6</v>
@@ -12501,7 +12516,7 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B125" s="0" t="s">
         <v>6</v>
@@ -12509,7 +12524,7 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B126" s="0" t="s">
         <v>6</v>
@@ -12517,7 +12532,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B127" s="0" t="s">
         <v>117</v>
@@ -12525,7 +12540,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B128" s="0" t="s">
         <v>117</v>
@@ -12533,23 +12548,23 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B131" s="0" t="s">
         <v>6</v>
@@ -12557,7 +12572,7 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B132" s="0" t="s">
         <v>6</v>
@@ -12565,15 +12580,15 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B134" s="0" t="s">
         <v>6</v>
@@ -12581,7 +12596,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B135" s="0" t="s">
         <v>30</v>
@@ -12589,23 +12604,23 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B138" s="0" t="s">
         <v>6</v>
@@ -12613,7 +12628,7 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B139" s="0" t="s">
         <v>6</v>
@@ -12621,15 +12636,15 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B141" s="0" t="s">
         <v>6</v>
@@ -12637,7 +12652,7 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B142" s="0" t="s">
         <v>6</v>
@@ -12645,7 +12660,7 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B143" s="0" t="s">
         <v>30</v>
@@ -12653,15 +12668,15 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B145" s="0" t="s">
         <v>30</v>
@@ -12669,15 +12684,15 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B147" s="0" t="s">
         <v>139</v>
@@ -12685,7 +12700,7 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B148" s="0" t="s">
         <v>139</v>
@@ -12693,15 +12708,15 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B150" s="0" t="s">
         <v>30</v>
@@ -12709,15 +12724,15 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B152" s="0" t="s">
         <v>6</v>
@@ -12725,7 +12740,7 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B153" s="0" t="s">
         <v>6</v>
@@ -12733,7 +12748,7 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B154" s="0" t="s">
         <v>120</v>
@@ -12741,15 +12756,15 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B156" s="0" t="s">
         <v>6</v>
@@ -12757,7 +12772,7 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B157" s="0" t="s">
         <v>6</v>
@@ -12765,7 +12780,7 @@
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B158" s="0" t="s">
         <v>120</v>
@@ -12773,7 +12788,7 @@
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B159" s="0" t="s">
         <v>18</v>
@@ -12781,7 +12796,7 @@
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B160" s="0" t="s">
         <v>6</v>
@@ -12789,7 +12804,7 @@
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B161" s="0" t="s">
         <v>120</v>
@@ -12797,7 +12812,7 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B162" s="0" t="s">
         <v>120</v>
@@ -12844,7 +12859,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12857,18 +12872,18 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3.1</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3.1</v>
@@ -12892,8 +12907,8 @@
   </sheetPr>
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12905,78 +12920,78 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="3" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="3" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12984,65 +12999,65 @@
         <v>435</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="7" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="7" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="7" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="7" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>0</v>
@@ -13050,7 +13065,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="7" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>0</v>
@@ -13058,7 +13073,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="7" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -13066,7 +13081,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D26" s="8" t="n">
         <f aca="false">FALSE()</f>
@@ -13078,146 +13093,146 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="3" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="1" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="1" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="1" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="1" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="1" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="1" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="1" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="1" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
   </sheetData>
